--- a/Scenarios/FlightTesting/Utilities/TxOpScheduleViewer/MDL_Shell_Generator/BRASS-Example_Flight_Test_Schedule.xlsx
+++ b/Scenarios/FlightTesting/Utilities/TxOpScheduleViewer/MDL_Shell_Generator/BRASS-Example_Flight_Test_Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tnewton/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tnewton/PycharmProjects/challenge-problems/Scenarios/FlightTesting/Utilities/TxOpScheduleViewer/MDL_Shell_Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC33FE01-2FA7-0D40-9EC0-05F43E6DB8FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01FF474-41A9-0D44-94F9-52C6F42BDC0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38020" yWindow="-2160" windowWidth="33080" windowHeight="21660" xr2:uid="{7BA411C7-B93B-8342-BCD4-9C4A4FD828FC}"/>
   </bookViews>
@@ -583,10 +583,10 @@
   <dimension ref="A1:U162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="A57:XFD57"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3626,13 +3626,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A42"/>
     <mergeCell ref="A115:A120"/>
     <mergeCell ref="A49:A54"/>
     <mergeCell ref="A55:A60"/>
@@ -3645,12 +3644,13 @@
     <mergeCell ref="A97:A102"/>
     <mergeCell ref="A103:A108"/>
     <mergeCell ref="A109:A114"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="A139:A144"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="A151:A156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
